--- a/C9500-48Y4C-E_VI.xlsx
+++ b/C9500-48Y4C-E_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1F02B-6D58-4E79-BE7B-6D1EFB5DFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D7663-BE09-4151-9C34-04A739BB2E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Thông số kỹ thuật</t>
   </si>
@@ -139,12 +139,6 @@
   </si>
   <si>
     <t>MACsec-128</t>
-  </si>
-  <si>
-    <t>Bảo hành</t>
-  </si>
-  <si>
-    <t>12 tháng</t>
   </si>
   <si>
     <t>C9500-48Y4C-E</t>
@@ -600,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,7 +614,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
     </row>
@@ -635,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -649,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -665,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -673,39 +667,39 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -713,23 +707,23 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -785,7 +779,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -799,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -815,7 +809,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -823,7 +817,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -831,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -847,13 +841,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -861,7 +855,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -883,7 +877,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -908,14 +902,6 @@
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/C9500-48Y4C-E_VI.xlsx
+++ b/C9500-48Y4C-E_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\KEY SPECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D7663-BE09-4151-9C34-04A739BB2E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF7BB97-D6A9-49DF-B2E1-B77D643FA948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,26 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Thông số kỹ thuật</t>
   </si>
   <si>
-    <t>Cấu hình tối thiểu</t>
-  </si>
-  <si>
     <t>16 GB</t>
   </si>
   <si>
-    <t>Bảo mật</t>
-  </si>
-  <si>
     <t>Tính năng</t>
   </si>
   <si>
-    <t>ASIC</t>
-  </si>
-  <si>
     <t>DRAM</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
     <t>Tổng số địa chỉ MAC</t>
   </si>
   <si>
-    <t>Quy mô Multicast</t>
-  </si>
-  <si>
-    <t>Số lượng FNF entries</t>
-  </si>
-  <si>
     <t>Số lượng VLAN IDs</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>Nguồn</t>
   </si>
   <si>
-    <t>MACsec-128</t>
-  </si>
-  <si>
     <t>C9500-48Y4C-E</t>
   </si>
   <si>
@@ -150,18 +132,6 @@
     <t>UADP 3.0</t>
   </si>
   <si>
-    <t>Tổng số tuyến IPv4 (tuyến gián tiếp)</t>
-  </si>
-  <si>
-    <t>Tổng số tuyến máy chủ IPv4 (tuyến trực tiếp và ARP)</t>
-  </si>
-  <si>
-    <t>Tổng số tuyến IPv6 (tuyến gián tiếp)</t>
-  </si>
-  <si>
-    <t>Tổng số tuyến máy chủ IPv6 (tuyến trực tiếp và NDP)</t>
-  </si>
-  <si>
     <t>Quy mô QoS ACL (v4/v6)</t>
   </si>
   <si>
@@ -171,9 +141,6 @@
     <t>9,216 bytes</t>
   </si>
   <si>
-    <t>Hỗ trợ nguồn phụ có thể tháo rời</t>
-  </si>
-  <si>
     <t>1.73 x 17.5 x 18.0 in</t>
   </si>
   <si>
@@ -192,15 +159,9 @@
     <t>Lên tới 82,000</t>
   </si>
   <si>
-    <t>Lên tới 90,000 host/ARP</t>
-  </si>
-  <si>
     <t>Lên tới 90,000 host</t>
   </si>
   <si>
-    <t>Lên tới 32,000 (IPv4) Lên tới 32,000 (IPv6)</t>
-  </si>
-  <si>
     <t>Lên tới 16,000/8,000</t>
   </si>
   <si>
@@ -210,12 +171,6 @@
     <t>Lên tới 256,000</t>
   </si>
   <si>
-    <t>Layer 2, Routed Access (RIP, EIGRP Stub, OSPF – Lên tới 1000 routes),PBR, PIM Stub Multicast (Lên tới 1000 routes)), PVLAN, VRRP, PBR, CDP, QoS, FHS, 802.1x, Macsec-128, CoPP, SXP, IP SLA Responder, SSO</t>
-  </si>
-  <si>
-    <t>Lên tới 256,000 gián tiếp + trực tiếp</t>
-  </si>
-  <si>
     <t>32° to 104°F (0° to 40°C) Lên tới độ cao 10,000 feet</t>
   </si>
   <si>
@@ -226,13 +181,43 @@
   </si>
   <si>
     <t>Môi trường xung quanh (không ngưng tụ) không hoạt động và lưu trữ: 5% đến 95%</t>
+  </si>
+  <si>
+    <t>Cấu hình</t>
+  </si>
+  <si>
+    <t>Tổng số tuyến host IPv4 (tuyến trực tiếp)</t>
+  </si>
+  <si>
+    <t>Tổng số tuyến máy chủ IPv6 (tuyến trực tiếp)</t>
+  </si>
+  <si>
+    <t>Tổng số tuyến Multicast IPv4</t>
+  </si>
+  <si>
+    <t>Lên tới 32,000</t>
+  </si>
+  <si>
+    <t>Tổng số tuyến Multicast IPv6</t>
+  </si>
+  <si>
+    <t>Số lượng mục FNF entries</t>
+  </si>
+  <si>
+    <t>Thiết kế dạng có thể tháo rời</t>
+  </si>
+  <si>
+    <t>Layer 2, Routed Access (RIP, EIGRP Stub, OSPF – Up to 1000 routes),PBR, PIM Stub Multicast (up to 1000 routes)), PVLAN, VRRP, PBR, CDP, QoS, FHS, 802.1x, Macsec-128, CoPP, SXP, IP SLA Responder, SSO</t>
+  </si>
+  <si>
+    <t>Mạch tích hợp ứng dụng cụ thể ASIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +230,19 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -294,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -308,6 +306,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -594,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,309 +614,293 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4094</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4094</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4000</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4">
         <v>316960</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>37</v>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
